--- a/report/基本設計書/基本設計書_I0002_アカウント作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0002_アカウント作成画面.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="9240" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
-    <sheet name="画面レイアウト" sheetId="4" r:id="rId1"/>
-    <sheet name="項目定義" sheetId="3" r:id="rId2"/>
-    <sheet name="イベント一覧" sheetId="5" r:id="rId3"/>
-    <sheet name="入力チェック一覧" sheetId="10" r:id="rId4"/>
+    <sheet name="修正履歴" sheetId="11" r:id="rId1"/>
+    <sheet name="画面レイアウト" sheetId="4" r:id="rId2"/>
+    <sheet name="項目定義" sheetId="3" r:id="rId3"/>
+    <sheet name="イベント一覧" sheetId="5" r:id="rId4"/>
+    <sheet name="入力チェック一覧" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">イベント一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト!$A$1:$AG$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">項目定義!$A$1:$AG$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">入力チェック一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -635,12 +637,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +714,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1169,12 +1221,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1419,66 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1373,24 +1488,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1400,51 +1497,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2088,7 +2228,7 @@
         <xdr:cNvPr id="5" name="타원 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2301,7 @@
         <xdr:cNvPr id="26" name="타원 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2374,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2447,7 @@
         <xdr:cNvPr id="28" name="타원 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2520,7 @@
         <xdr:cNvPr id="29" name="타원 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2593,7 @@
         <xdr:cNvPr id="30" name="타원 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2668,7 @@
         <xdr:cNvPr id="31" name="타원 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,9 +3151,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="95"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="96">
+        <v>1</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="102"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="103">
+        <v>2</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="106"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="96">
+        <v>3</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="106"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="103">
+        <v>4</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="102"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="96">
+        <v>5</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="102"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="103">
+        <v>6</v>
+      </c>
+      <c r="B8" s="104"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="106"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="96">
+        <v>7</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="102"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="103">
+        <v>8</v>
+      </c>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="102"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="96">
+        <v>9</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="102"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="103">
+        <v>10</v>
+      </c>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="102"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="96">
+        <v>11</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="102"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="103">
+        <v>12</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="102"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="96">
+        <v>13</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="102"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="103">
+        <v>14</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="102"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="96">
+        <v>15</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="102"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="103">
+        <v>16</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="102"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="96">
+        <v>17</v>
+      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="102"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="96">
+        <v>18</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="102"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="103">
+        <v>19</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="102"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="96">
+        <v>20</v>
+      </c>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="102"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="96"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="102"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="115"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
@@ -3615,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
@@ -4753,7 +5685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
@@ -4921,13 +5853,13 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="39" t="s">
         <v>89</v>
       </c>
@@ -4949,38 +5881,38 @@
       <c r="AF5" s="48"/>
     </row>
     <row r="6" spans="1:32" s="45" customFormat="1" ht="15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="75"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="69"/>
     </row>
     <row r="7" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A7" s="50">
@@ -5027,76 +5959,76 @@
       <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32" s="45" customFormat="1" ht="15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="75"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="69"/>
     </row>
     <row r="9" spans="1:32" s="45" customFormat="1" ht="15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="78" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="83"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="77"/>
     </row>
     <row r="10" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A10" s="50">
@@ -5144,7 +6076,7 @@
     </row>
     <row r="11" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A11" s="36"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5152,7 +6084,7 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="85"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
@@ -5178,7 +6110,7 @@
     </row>
     <row r="12" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A12" s="36"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5186,7 +6118,7 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
-      <c r="J12" s="85"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="42"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
@@ -5212,7 +6144,7 @@
     </row>
     <row r="13" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A13" s="36"/>
-      <c r="B13" s="84"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -5220,7 +6152,7 @@
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="85"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="42"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -5246,7 +6178,7 @@
     </row>
     <row r="14" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A14" s="36"/>
-      <c r="B14" s="84"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -5254,7 +6186,7 @@
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="85"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="42"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -5280,7 +6212,7 @@
     </row>
     <row r="15" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A15" s="36"/>
-      <c r="B15" s="84"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -5322,7 +6254,7 @@
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="85"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="42"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -5356,7 +6288,7 @@
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="85"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="42"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -5390,7 +6322,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="85"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="42"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -5628,7 +6560,7 @@
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
-      <c r="J25" s="86"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
       <c r="M25" s="57"/>
@@ -5650,40 +6582,40 @@
       <c r="AC25" s="57"/>
       <c r="AD25" s="57"/>
       <c r="AE25" s="57"/>
-      <c r="AF25" s="87"/>
+      <c r="AF25" s="81"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5695,7 +6627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
@@ -5862,7 +6794,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="85"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="39" t="s">
         <v>56</v>
       </c>
@@ -5906,7 +6838,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="85"/>
+      <c r="J6" s="79"/>
       <c r="K6" s="39" t="s">
         <v>56</v>
       </c>
@@ -6576,7 +7508,7 @@
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
-      <c r="J25" s="86"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
       <c r="M25" s="57"/>
@@ -6598,40 +7530,40 @@
       <c r="AC25" s="57"/>
       <c r="AD25" s="57"/>
       <c r="AE25" s="57"/>
-      <c r="AF25" s="87"/>
+      <c r="AF25" s="81"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/report/基本設計書/基本設計書_I0002_アカウント作成画面.xlsx
+++ b/report/基本設計書/基本設計書_I0002_アカウント作成画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="11580" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -254,14 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント作成画面</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -291,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -313,14 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>取り戻す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,18 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>btnCancel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mailAddress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>btnCreate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,18 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>passwordHint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>passwordRe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード再</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IE0003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,14 +330,6 @@
   </si>
   <si>
     <t>ヒント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードヒント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードヒントをマウスオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -393,16 +341,6 @@
   </si>
   <si>
     <t>取り戻す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I0001画面に移動</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,10 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パターンチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同様チェック</t>
     <rPh sb="0" eb="2">
       <t>ドウヨウ</t>
@@ -483,10 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「パスワード」項目と入力値が同様かチェック</t>
     <rPh sb="7" eb="9">
       <t>コウモク</t>
@@ -503,24 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大英語、小英語、数字、特殊文字のうち、3種類以上を使用するかチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力値がメール形式かチェック（XXXX@XX.XX）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ISSMINI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,18 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>**********</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,26 +470,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Account Create page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト名ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ISS Management</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -608,10 +488,6 @@
   </si>
   <si>
     <t>KaisyameiRaberu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SitemeiRaberu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -671,6 +547,189 @@
   <si>
     <t>修正内容</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SingUp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再</t>
+  </si>
+  <si>
+    <t>passwordRe</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>btnCreate</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t>btnCancel</t>
+  </si>
+  <si>
+    <t>IE0003</t>
+  </si>
+  <si>
+    <t>サイト名ラベル</t>
+  </si>
+  <si>
+    <t>SitemeiRaberu</t>
+  </si>
+  <si>
+    <t>ラベル</t>
+  </si>
+  <si>
+    <t>ISS Management</t>
+  </si>
+  <si>
+    <t>戻る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードをマウスオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大英語、小英語、数字、特殊文字のうち、3種類以上を使用するかチェック</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>パターンチェック</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>必須チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No3~6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたかチェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須チェックを追記</t>
+    <rPh sb="7" eb="9">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトを変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールを名前に変更</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒントの場所を変更</t>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る処理を行う</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -750,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1220,6 +1279,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1229,7 +1325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1575,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1496,90 +1715,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,627 +1736,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>111325</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="그룹 24"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="1209675"/>
-          <a:ext cx="3848100" cy="3810000"/>
-          <a:chOff x="2476500" y="1162050"/>
-          <a:chExt cx="4048125" cy="3819525"/>
+          <a:off x="914400" y="1171576"/>
+          <a:ext cx="7038975" cy="3959424"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="직사각형 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2476500" y="1162050"/>
-            <a:ext cx="4048125" cy="3819525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="1771650"/>
-            <a:ext cx="657225" cy="323850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="2371725"/>
-            <a:ext cx="1133475" cy="323850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>パスワード  </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="TextBox 14"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="3009900"/>
-            <a:ext cx="2190750" cy="323850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>パスワード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>を再入力</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="TextBox 15"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="3714750"/>
-            <a:ext cx="1466850" cy="323850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>メールアドレス</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="직사각형 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="2019300"/>
-            <a:ext cx="2276475" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="직사각형 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="2628900"/>
-            <a:ext cx="2276475" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="직사각형 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="3286125"/>
-            <a:ext cx="2276475" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="직사각형 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="4019550"/>
-            <a:ext cx="2276475" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="모서리가 둥근 직사각형 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400425" y="4476750"/>
-            <a:ext cx="781050" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>作成</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="모서리가 둥근 직사각형 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4841246" y="4476750"/>
-            <a:ext cx="835654" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>戻る</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="TextBox 23"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3638551" y="1276350"/>
-            <a:ext cx="1981200" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>アカウントを作成</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131236</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>93136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46374</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>158281</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65424</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2236,13 +1800,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="2055286"/>
+          <a:off x="1209675" y="1302811"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -2285,16 +1851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5938</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>46374</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>32983</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2309,13 +1875,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="2644363"/>
+          <a:off x="3952875" y="2920588"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -2349,7 +1917,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2358,16 +1926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>187650</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>235275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>46374</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214695</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2382,13 +1950,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="2349825"/>
+          <a:off x="3124200" y="1921200"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -2432,15 +2002,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>194776</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>46374</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>221821</xdr:rowOff>
+      <xdr:colOff>55899</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2455,13 +2025,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="3309451"/>
+          <a:off x="3133725" y="2175976"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -2505,15 +2077,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202495</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>221545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>46374</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>229540</xdr:rowOff>
+      <xdr:colOff>74949</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2528,13 +2100,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="4031545"/>
+          <a:off x="3152775" y="2383720"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -2578,15 +2152,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49288</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>227349</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76333</xdr:rowOff>
+      <xdr:colOff>55899</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2601,7 +2175,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305175" y="4354588"/>
+          <a:off x="3133725" y="2621038"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2652,16 +2226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49288</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>8274</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76333</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74949</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2676,7 +2250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743450" y="4354588"/>
+          <a:off x="3705225" y="4697488"/>
           <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2718,7 +2292,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>9</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2727,36 +2301,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82542</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15439</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265449</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167806</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="타원 31"/>
+        <xdr:cNvPr id="33" name="타원 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="2482842"/>
-          <a:ext cx="171450" cy="171022"/>
+          <a:off x="3895725" y="1588561"/>
+          <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2782,10 +2362,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>?</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2793,33 +2376,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="사각형 설명선 2"/>
+        <xdr:cNvPr id="34" name="타원 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90076EA9-066B-4B50-9A14-E864D54F5985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="1114425"/>
-          <a:ext cx="1219200" cy="485775"/>
+          <a:off x="4629150" y="2949163"/>
+          <a:ext cx="236874" cy="265170"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -107552"/>
-            <a:gd name="adj2" fmla="val 68382"/>
-          </a:avLst>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2838,13 +2432,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>変更予定</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3154,785 +2752,797 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="89"/>
+    <col min="1" max="1" width="4" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.75" style="83"/>
+    <col min="6" max="6" width="4.75" style="83" customWidth="1"/>
+    <col min="7" max="16384" width="3.75" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
-      <c r="A2" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="95"/>
+      <c r="A2" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="89"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="96">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="102"/>
+      <c r="B3" s="110">
+        <v>44639</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="94"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="95"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="103">
+      <c r="A4" s="113"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="118"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="113"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="118"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="119"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="123"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="90">
         <v>2</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="106"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="96">
+      <c r="B7" s="97"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="95"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="96">
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="106"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="103">
+      <c r="B8" s="97"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="98"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="90">
         <v>4</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="102"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="96">
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="95"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="96">
         <v>5</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="102"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="103">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="95"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="90">
         <v>6</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="106"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="96">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="95"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="96">
         <v>7</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="102"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="103">
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="95"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="90">
         <v>8</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="102"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="96">
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="95"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="96">
         <v>9</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="102"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="103">
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="95"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="90">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="102"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="96">
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="95"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="96">
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="102"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="103">
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="95"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="90">
         <v>12</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="102"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="96">
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="95"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="96">
         <v>13</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="102"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="103">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="95"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="90">
         <v>14</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="102"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="96">
-        <v>15</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="102"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="103">
-        <v>16</v>
-      </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="102"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="96">
-        <v>17</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="102"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="95"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="96">
-        <v>18</v>
-      </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="102"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="95"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="103">
-        <v>19</v>
-      </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="102"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="95"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="96">
-        <v>20</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="102"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="95"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="96"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="102"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="95"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="115"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="107"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="116"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="108"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="108"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3946,7 +3556,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3964,7 +3574,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3981,7 +3591,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -3993,7 +3603,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4007,7 +3617,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4020,7 +3630,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4030,7 +3640,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4040,7 +3652,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4552,7 +4166,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -4570,7 +4184,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4587,7 +4201,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4599,7 +4213,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4613,7 +4227,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4626,7 +4240,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4636,7 +4250,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4646,7 +4262,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4671,7 +4289,7 @@
       <c r="H4" s="34"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="7" t="s">
@@ -4715,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -4731,30 +4349,30 @@
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="39" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
       <c r="O5" s="40"/>
       <c r="P5" s="42" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
       <c r="T5" s="42" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
       <c r="W5" s="42" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
       <c r="AA5" s="42" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="41"/>
       <c r="AC5" s="40" t="s">
@@ -4762,7 +4380,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="42" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="44"/>
     </row>
@@ -4771,13 +4389,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -4787,38 +4405,38 @@
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="39" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="40"/>
       <c r="P6" s="42" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
       <c r="T6" s="42" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="U6" s="40"/>
       <c r="V6" s="40"/>
       <c r="W6" s="42" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
       <c r="AA6" s="42" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="41"/>
       <c r="AC6" s="40" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="42" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AF6" s="44"/>
     </row>
@@ -4827,23 +4445,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="42" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="41"/>
       <c r="J7" s="42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="42" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -4855,7 +4473,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
       <c r="T7" s="42" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="U7" s="40"/>
       <c r="V7" s="40"/>
@@ -4866,7 +4484,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="41"/>
       <c r="AC7" s="40" t="s">
@@ -4874,7 +4492,7 @@
       </c>
       <c r="AD7" s="40"/>
       <c r="AE7" s="42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AF7" s="44"/>
     </row>
@@ -4883,23 +4501,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="41"/>
       <c r="J8" s="42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="42" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
@@ -4911,18 +4529,18 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
       <c r="T8" s="42" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
       <c r="W8" s="42" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
       <c r="AA8" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB8" s="41"/>
       <c r="AC8" s="40">
@@ -4930,7 +4548,7 @@
       </c>
       <c r="AD8" s="40"/>
       <c r="AE8" s="42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AF8" s="44"/>
     </row>
@@ -4939,54 +4557,54 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="42" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="41"/>
       <c r="J9" s="42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="42" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="42" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
       <c r="T9" s="42" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
       <c r="W9" s="39" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
-      <c r="AA9" s="42" t="s">
-        <v>25</v>
+      <c r="AA9" s="42">
+        <v>20</v>
       </c>
       <c r="AB9" s="41"/>
-      <c r="AC9" s="40" t="s">
-        <v>25</v>
+      <c r="AC9" s="40">
+        <v>6</v>
       </c>
       <c r="AD9" s="40"/>
       <c r="AE9" s="42" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF9" s="44"/>
     </row>
@@ -4995,54 +4613,54 @@
         <v>6</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="39" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="47"/>
       <c r="J10" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="42" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="39" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="47"/>
-      <c r="AC10" s="43">
-        <v>6</v>
+      <c r="AC10" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="AD10" s="43"/>
       <c r="AE10" s="42" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="48"/>
     </row>
@@ -5051,54 +4669,54 @@
         <v>7</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="39" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="47"/>
       <c r="J11" s="39" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="K11" s="43"/>
       <c r="L11" s="42" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
       <c r="P11" s="39" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
       <c r="T11" s="39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="39" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="X11" s="43"/>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AB11" s="47"/>
       <c r="AC11" s="43" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AD11" s="43"/>
       <c r="AE11" s="42" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AF11" s="48"/>
     </row>
@@ -5107,54 +4725,54 @@
         <v>8</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="39" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="47"/>
       <c r="J12" s="39" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="42" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="39" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
       <c r="S12" s="43"/>
       <c r="T12" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="U12" s="43"/>
       <c r="V12" s="43"/>
       <c r="W12" s="39" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="43" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AD12" s="43"/>
       <c r="AE12" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AF12" s="48"/>
     </row>
@@ -5163,111 +4781,89 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="39" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="47"/>
       <c r="J13" s="39" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="42" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
       <c r="P13" s="39" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="43"/>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
       <c r="T13" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
       <c r="W13" s="39" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="39" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AB13" s="47"/>
       <c r="AC13" s="43" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AD13" s="43"/>
       <c r="AE13" s="39" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AF13" s="48"/>
     </row>
     <row r="14" spans="1:32" s="45" customFormat="1" ht="15">
-      <c r="A14" s="50">
-        <v>10</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>85</v>
-      </c>
+      <c r="A14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="39" t="s">
-        <v>92</v>
-      </c>
+      <c r="F14" s="39"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="J14" s="42"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="39" t="s">
-        <v>86</v>
-      </c>
+      <c r="L14" s="39"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
-      <c r="P14" s="39" t="s">
-        <v>88</v>
-      </c>
+      <c r="P14" s="39"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="T14" s="39"/>
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
-      <c r="W14" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="W14" s="39"/>
       <c r="X14" s="43"/>
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
-      <c r="AA14" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA14" s="39"/>
       <c r="AB14" s="47"/>
-      <c r="AC14" s="43" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC14" s="43"/>
       <c r="AD14" s="43"/>
-      <c r="AE14" s="39" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE14" s="39"/>
       <c r="AF14" s="48"/>
     </row>
     <row r="15" spans="1:32" s="45" customFormat="1" ht="15">
@@ -5690,7 +5286,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -5708,7 +5304,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5725,7 +5321,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -5737,7 +5333,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5751,7 +5347,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5764,7 +5360,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -5774,7 +5370,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -5784,7 +5382,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -5841,27 +5441,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="39" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="85"/>
+      <c r="K5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="39" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -5891,11 +5491,11 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="68"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
@@ -5919,27 +5519,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="62"/>
       <c r="K7" s="39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
       <c r="P7" s="39" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -5975,7 +5575,7 @@
       <c r="N8" s="65"/>
       <c r="O8" s="65"/>
       <c r="P8" s="66" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="65"/>
       <c r="R8" s="65"/>
@@ -6011,7 +5611,7 @@
       <c r="N9" s="73"/>
       <c r="O9" s="73"/>
       <c r="P9" s="72" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
@@ -6035,27 +5635,27 @@
         <v>3</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="62"/>
       <c r="K10" s="39" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="39" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
@@ -6632,7 +6232,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L13" sqref="L13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -6650,7 +6250,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -6667,7 +6267,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -6679,7 +6279,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6693,7 +6293,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -6706,7 +6306,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6716,7 +6316,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="109" t="s">
+        <v>106</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6726,7 +6328,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -6783,27 +6387,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="37" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="79"/>
       <c r="K5" s="39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
       <c r="P5" s="42" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
@@ -6827,27 +6431,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="37" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="79"/>
       <c r="K6" s="39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="42" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
@@ -6871,27 +6475,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="37" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="62"/>
       <c r="K7" s="39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
       <c r="P7" s="39" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -6915,27 +6519,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="49" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="62"/>
       <c r="K8" s="39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="39" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
